--- a/survey.xlsx
+++ b/survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajith\Desktop\Techies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal Data\Data Science\StudentCareerPortal-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE076FEB-8364-4D53-A730-200E1D2868FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793EA8C-0BE2-49B5-B8B8-8EADEA97C52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="375">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Geschlecht </t>
-  </si>
-  <si>
     <t>21 -25</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Marketing/Brand Management</t>
   </si>
   <si>
-    <t>Automobil, Unternehmer sein, Sonstiges</t>
-  </si>
-  <si>
     <t>Hamburg</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t xml:space="preserve">Digitales Marketing </t>
   </si>
   <si>
-    <t>Automobil, Nahrungsmittel-Industrie, Unternehmer sein</t>
-  </si>
-  <si>
     <t>Hessen</t>
   </si>
   <si>
@@ -397,9 +388,6 @@
     <t>Mathe, Physik, Chemie, Biologie, Englisch</t>
   </si>
   <si>
-    <t>Beamter, Gesundheitsbereich, Pharmaindustrie, Unternehmer sein</t>
-  </si>
-  <si>
     <t>Lehramt</t>
   </si>
   <si>
@@ -478,15 +466,9 @@
     <t>STIM</t>
   </si>
   <si>
-    <t>Automobil, Energie, Gesundheitsbereich, IT-Branche, Pharmaindustrie, Unternehmer sein</t>
-  </si>
-  <si>
     <t>joshua.bauckloh@techlabs.org</t>
   </si>
   <si>
-    <t xml:space="preserve">Medizinische Management </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wirtschaftspsyschologie </t>
   </si>
   <si>
@@ -568,9 +550,6 @@
     <t>Projektleiter, Entrepreneur, Consultant</t>
   </si>
   <si>
-    <t>Automobil, Bauwesen, Gesundheitsbereich, IT-Branche, Nahrungsmittel-Industrie, Pharmaindustrie, Unternehmer sein</t>
-  </si>
-  <si>
     <t>Wirtschaftspsychologie</t>
   </si>
   <si>
@@ -670,9 +649,6 @@
     <t>SAP Berater oder Enterprise/Solution Architektur</t>
   </si>
   <si>
-    <t>Automobil, IT-Branche, Unternehmer sein, Sonstiges</t>
-  </si>
-  <si>
     <t>lena03schl06@gmail.com</t>
   </si>
   <si>
@@ -688,9 +664,6 @@
     <t>Noch Unschlüssig</t>
   </si>
   <si>
-    <t>Beamter, IT-Branche, Unternehmer sein, bin nicht sicher</t>
-  </si>
-  <si>
     <t>kyrgyzofosch@gmail.com</t>
   </si>
   <si>
@@ -718,9 +691,6 @@
     <t>Fachinformatik</t>
   </si>
   <si>
-    <t>Automobil, Beamter, Energie, IT-Branche</t>
-  </si>
-  <si>
     <t>Mathe, Informatik</t>
   </si>
   <si>
@@ -862,9 +832,6 @@
     <t>Wirtschaftsinformatik oder Betriebswirt</t>
   </si>
   <si>
-    <t>Automobil, Bauwesen, IT-Branche, Nahrungsmittel-Industrie</t>
-  </si>
-  <si>
     <t>Schleswig-Holstein</t>
   </si>
   <si>
@@ -1055,6 +1022,129 @@
   </si>
   <si>
     <t>Altersgruppe</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Software Engineering, Organisations- &amp; Personalentwicklung, Agile Softwareentwicklung </t>
+  </si>
+  <si>
+    <t>Mehr als 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational Culture, TOPSIM Unternehmensplanungen, Wirtschaftsinformatik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Software Engineering </t>
+  </si>
+  <si>
+    <t>Forschungsmethodik</t>
+  </si>
+  <si>
+    <t>Wirtschaftsförderung</t>
+  </si>
+  <si>
+    <t>Politik und Soziologie</t>
+  </si>
+  <si>
+    <t>31 - 35</t>
+  </si>
+  <si>
+    <t>Modellierer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing </t>
+  </si>
+  <si>
+    <t>Marketing of Digital Innovations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental Methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkt Marketing </t>
+  </si>
+  <si>
+    <t>Geographie</t>
+  </si>
+  <si>
+    <t>Psychologie in der Business Kommunikation, Interkulturelles Management, Design Thinkjng</t>
+  </si>
+  <si>
+    <t>Automatisierungstechnik, Produktmodellierung, Vernetzte Produktionssysteme, Fertigungsautomatisierung, Produktentwicklung</t>
+  </si>
+  <si>
+    <t>Groß- und Außenhandel, Sonnenschutz und Sicherheitstechnik</t>
+  </si>
+  <si>
+    <t>Betriebswirtschaftslehre, Wirtschaftsingenieurwesen, bin nicht sicher</t>
+  </si>
+  <si>
+    <t>Sales Engineering and Product Management</t>
+  </si>
+  <si>
+    <t>Aus Intresse, Hohes Gehalt, Hohe Nachfrage, Corona Situation</t>
+  </si>
+  <si>
+    <t>Automobil, Anlagenbau, Energie</t>
+  </si>
+  <si>
+    <t>yann.lecoq@rub.de</t>
+  </si>
+  <si>
+    <t>Projekt Manager im Bereich Energiewirtschaft</t>
+  </si>
+  <si>
+    <t>Wirtschaftsingenieur im Bereich Energietechnik</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>angewandte informatik</t>
+  </si>
+  <si>
+    <t>Datenbanken und Systeme</t>
+  </si>
+  <si>
+    <t>Robtoik</t>
+  </si>
+  <si>
+    <t>Digital Experte</t>
+  </si>
+  <si>
+    <t>Kunst (Lehramt)</t>
+  </si>
+  <si>
+    <t>Fotografie &amp; Kunstgeschichte</t>
+  </si>
+  <si>
+    <t>Kunst</t>
+  </si>
+  <si>
+    <t>nina.karsten@tu-dortmund.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prozess Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versicherungen </t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Automobil</t>
+  </si>
+  <si>
+    <t>Beamter</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Pharmaindustrie</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1078,6 +1168,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1130,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1146,9 +1242,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1364,4767 +1464,5700 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BE85"/>
+  <dimension ref="A1:BE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="63" width="21.53125" customWidth="1"/>
+    <col min="1" max="63" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="U1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="W1" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="X1" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI1" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AL1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AM1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AN1" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AR1" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AT1" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AU1" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AV1" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AW1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AX1" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="BB1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="BC1" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="BD1" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="BE1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AU1" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="AX1" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44213.851793993061</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>4</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="2">
-        <v>4</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44213.862880034721</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AK3" s="2">
         <v>6</v>
       </c>
       <c r="AL3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AQ3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AW3" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44213.870260115742</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="AI4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="AK4" s="2">
         <v>8</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AW4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44213.878578032411</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="AK5" s="2">
         <v>6</v>
       </c>
       <c r="AL5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AO5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AW5" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44213.901209872682</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="2">
+        <v>4</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="2">
-        <v>4</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="V6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AW6" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44213.918966099533</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S7" s="2">
         <v>6</v>
       </c>
       <c r="T7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44213.919321469904</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="BA8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44213.920461273148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S9" s="2">
         <v>6</v>
       </c>
       <c r="T9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="2" t="s">
+      <c r="AZ9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2" t="s">
+      <c r="BA9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44213.926782361115</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="BE10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44213.927453136574</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2">
         <v>6</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AZ11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44213.933848912042</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BC12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44213.935861550926</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BC13" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="BD13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44213.939208263888</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BC14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44213.944613761574</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG15" s="2">
         <v>2</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AK15" s="2">
         <v>7</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44213.946264745369</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S16" s="2">
         <v>2</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA16" s="2">
         <v>3</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44213.946851527777</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA17" s="2">
         <v>2</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44213.94820890046</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="2">
-        <v>3</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44213.961483946754</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="Y19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="2" t="s">
+      <c r="AW19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="X19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44213.967517141209</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="R20" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S20" s="2">
         <v>6</v>
       </c>
       <c r="T20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE20" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44213.973542152773</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S21" s="2">
         <v>2</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA21" s="2">
         <v>2</v>
       </c>
       <c r="AB21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AC21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE21" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44213.977588321759</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T22" s="2" t="s">
+      <c r="X22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="Y22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="2" t="s">
+      <c r="AW22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW22" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44213.991990046299</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG23" s="2">
         <v>2</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BB23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44213.995848125</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S24" s="2">
         <v>4</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="AA24" s="2">
         <v>1</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="AX24" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AZ24" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44214.005773877318</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA25" s="2">
         <v>3</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="AW25" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44214.016496458338</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S26" s="2">
         <v>5</v>
       </c>
       <c r="T26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA26" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44214.114642418979</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="S27" s="2">
         <v>2</v>
       </c>
       <c r="T27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW27" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA27" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44214.23884377315</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AA28" s="2">
         <v>3</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="AW28" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44214.286600069448</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="O29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AX29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AZ29" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44214.305087638888</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S30" s="2">
         <v>5</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AA30" s="2">
         <v>3</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW30" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AZ30" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="BA30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44214.31710252315</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BC31" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="BD31" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44214.374579710653</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S32" s="2">
         <v>6</v>
       </c>
       <c r="T32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z32" s="2" t="s">
+      <c r="AZ32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44214.421698472222</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S33" s="2">
         <v>4</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="AA33" s="2">
         <v>1</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AZ33" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44214.482716967592</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA34" s="2">
         <v>5</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW34" s="18" t="s">
+        <v>374</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AZ34" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA34" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44214.495524398153</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AG35" s="2">
         <v>2</v>
       </c>
       <c r="AH35" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AK35" s="2">
         <v>10</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AQ35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW35" s="2" t="s">
-        <v>152</v>
+        <v>24</v>
+      </c>
+      <c r="AW35" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="BE35" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44214.851502303238</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="S36" s="2">
         <v>2</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA36" s="2">
         <v>4</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW36" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AX36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AZ36" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BE36" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44214.984520601851</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="S37" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W37" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Y37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA37" s="2">
         <v>1</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW37" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="AW37" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44215.531895057866</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AX38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AZ38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA38" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BE38" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44215.72870230324</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AW39" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BC39" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="BD39" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44215.777075069447</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S40" s="2">
         <v>3</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA40" s="2">
         <v>5</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW40" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="AX40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AZ40" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA40" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44215.794207141204</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S41" s="2">
         <v>5</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AA41" s="2">
         <v>3</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW41" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="AX41" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AZ41" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="BA41" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44215.80726306713</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="S42" s="2">
         <v>2</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA42" s="2">
         <v>4</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW42" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AX42" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AZ42" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BE42" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44215.823730069445</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q43" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S43" s="2">
         <v>5</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="V43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y43" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="Z43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA43" s="2">
         <v>2</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW43" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44215.835558622683</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA44" s="2">
         <v>2</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW44" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="AX44" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AZ44" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="BA44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44215.842457071762</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AW45" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BC45" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="BD45" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44215.912842233796</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE46" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="AG46" s="2">
         <v>3</v>
       </c>
       <c r="AH46" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ46" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AK46" s="2">
         <v>8</v>
       </c>
       <c r="AL46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN46" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AO46" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AP46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AQ46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW46" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="AW46" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44216.278869942129</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE47" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AE47" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="AG47" s="2">
         <v>5</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ47" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AK47" s="2">
         <v>7</v>
       </c>
       <c r="AL47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN47" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AO47" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AP47" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AQ47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AS47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV47" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44216.343519074071</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AE48" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="AF48" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AG48" s="2">
         <v>1</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AI48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ48" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AK48" s="2">
         <v>7</v>
       </c>
       <c r="AN48" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AO48" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AP48" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AQ48" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AS48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV48" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AW48" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44216.384279548613</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="S49" s="2">
         <v>1</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y49" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="AC49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW49" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="AX49" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AZ49" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA49" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44216.426966284722</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="Q50" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA50" s="2">
         <v>3</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW50" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AZ50" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="BA50" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44216.55605353009</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S51" s="2">
         <v>3</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA51" s="2">
         <v>4</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW51" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="AX51" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AZ51" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA51" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44216.556600451389</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S52" s="2">
         <v>6</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="V52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X52" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="Z52" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA52" s="2">
         <v>2</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV52" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44216.557496909722</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S53" s="2">
         <v>1</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="V53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="AA53" s="2">
         <v>5</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW53" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="AX53" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ53" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA53" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44216.558402731476</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S54" s="2">
         <v>1</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z54" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AA54" s="2">
         <v>3</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW54" s="18" t="s">
+        <v>371</v>
       </c>
       <c r="AX54" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AZ54" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BA54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44216.559597800922</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S55" s="2">
         <v>1</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AA55" s="2">
         <v>5</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW55" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="AX55" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ55" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BA55" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44216.559598715277</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S56" s="2">
         <v>3</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AA56" s="2">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AW56" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
+      </c>
+      <c r="AW56" s="18" t="s">
+        <v>371</v>
       </c>
       <c r="BE56" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44216.559607129631</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S57" s="2">
         <v>1</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AA57" s="2">
         <v>5</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW57" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="AX57" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA57" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BA57" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44216.559988171299</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG58" s="2">
         <v>1</v>
       </c>
       <c r="AH58" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AI58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AJ58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AK58" s="2">
         <v>6</v>
       </c>
       <c r="AL58" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN58" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AO58" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AQ58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV58" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AW58" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
+      </c>
+      <c r="AW58" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="BE58" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44216.56125893518</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S59" s="2">
         <v>6</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AA59" s="2">
         <v>4</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW59" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="AX59" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ59" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="BA59" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BE59" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44216.563067407405</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S60" s="2">
         <v>1</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA60" s="2">
         <v>2</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV60" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AW60" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+      <c r="AW60" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44216.565034814819</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S61" s="2">
         <v>3</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="V61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z61" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="AA61" s="2">
         <v>5</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW61" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX61" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AZ61" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA61" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44216.565459421297</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S62" s="2">
         <v>1</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA62" s="2">
         <v>3</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW62" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="AX62" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ62" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="BA62" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BE62" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44216.566524444446</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S63" s="2">
         <v>3</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA63" s="2">
         <v>2</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW63" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="AX63" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AZ63" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="BA63" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="BE63" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44216.567291770829</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA64" s="2">
         <v>5</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW64" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX64" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AZ64" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA64" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="BE64" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44216.572891053242</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA65" s="2">
         <v>3</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW65" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="AX65" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ65" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="BA65" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="BE65" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44216.574225682867</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S66" s="2">
         <v>5</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA66" s="2">
         <v>4</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW66" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="AX66" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ66" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BA66" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44216.582101701388</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S67" s="2">
         <v>6</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="U67" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA67" s="2">
         <v>5</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW67" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="AX67" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ67" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA67" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44216.582536909722</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S68" s="2">
         <v>3</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA68" s="2">
         <v>5</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW68" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX68" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AZ68" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BA68" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="BE68" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44216.585847418981</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S69" s="2">
         <v>3</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y69" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA69" s="2">
         <v>2</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="AW69" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX69" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AZ69" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA69" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="BE69" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44216.587018738428</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG70" s="2">
         <v>2</v>
       </c>
       <c r="AI70" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AJ70" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AK70" s="2">
         <v>7</v>
       </c>
       <c r="AL70" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AO70" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AP70" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AQ70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS70" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BE70" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44216.588502407409</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S71" s="2">
         <v>3</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA71" s="2">
         <v>4</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW71" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX71" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AZ71" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA71" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44216.58899128472</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S72" s="2">
         <v>3</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA72" s="2">
         <v>4</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW72" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="AX72" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ72" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BA72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BE72" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44216.590706967589</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S73" s="2">
         <v>1</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="V73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="AA73" s="2">
         <v>3</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW73" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX73" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ73" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA73" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="BE73" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44216.590889814819</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S74" s="2">
         <v>3</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA74" s="2">
         <v>5</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW74" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="AX74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ74" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA74" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44216.590939074071</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S75" s="2">
         <v>5</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AA75" s="2">
         <v>4</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW75" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="AX75" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ75" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA75" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BE75" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44216.596859722224</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S76" s="2">
         <v>3</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA76" s="2">
         <v>1</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW76" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="AX76" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AZ76" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BA76" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="BE76" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44216.604442800926</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="AW77" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="BC77" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="BD77" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44216.619711319443</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S78" s="2">
         <v>3</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA78" s="2">
         <v>4</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="AW78" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44216.627242291666</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S79" s="2">
         <v>1</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z79" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AA79" s="2">
         <v>3</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW79" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="AX79" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AZ79" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BA79" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44216.665145532403</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S80" s="2">
         <v>5</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Y80" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Z80" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA80" s="2">
         <v>1</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV80" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW80" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="AW80" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44216.705034826387</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S81" s="2">
         <v>1</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA81" s="2">
         <v>3</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW81" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="AX81" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ81" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="BA81" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BE81" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44216.754133472219</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S82" s="2">
         <v>5</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="V82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y82" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="Z82" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA82" s="2">
         <v>4</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW82" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="AX82" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ82" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BA82" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44216.885961307868</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S83" s="2">
         <v>4</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AA83" s="2">
         <v>4</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW83" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="AX83" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ83" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="BA83" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44216.972201261575</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S84" s="2">
         <v>4</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Y84" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z84" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AA84" s="2">
         <v>4</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AW84" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="AX84" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AZ84" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="BA84" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44217.47214268519</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW85" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD85" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <v>44217.892980844903</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD86" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE86" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG86" s="16">
+        <v>2</v>
+      </c>
+      <c r="AH86" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI86" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ86" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK86" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL86" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM86" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN86" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO86" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP86" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ86" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS86" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC85" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="BD85" s="2" t="s">
-        <v>290</v>
+      <c r="AW86" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <v>44217.941343194441</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW87" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC87" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="BD87" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>44218.279279560185</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW88" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC88" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD88" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>44222.360616412036</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD89" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE89" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG89" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH89" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI89" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ89" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK89" s="16">
+        <v>8</v>
+      </c>
+      <c r="AL89" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN89" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO89" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP89" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS89" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV89" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AW89" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>44222.441170810183</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P90" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S90" s="16">
+        <v>5</v>
+      </c>
+      <c r="T90" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="V90" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W90" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y90" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z90" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA90" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC90" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV90" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW90" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <v>44222.647856990741</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S91" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T91" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U91" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="V91" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z91" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA91" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC91" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW91" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX91" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ91" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA91" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <v>44233.50555321759</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P92" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="S92" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="T92" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="U92" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="V92" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X92" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y92" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z92" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA92" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC92" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW92" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX92" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="AY92" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="AZ92" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="BA92" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE92" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <v>44235.6574396875</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW93" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC93" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="BD93" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
+        <v>44235.658724502311</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q94" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R94" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="S94" s="16">
+        <v>6</v>
+      </c>
+      <c r="T94" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="U94" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="V94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z94" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA94" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB94" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC94" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV94" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW94" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="15">
+        <v>44236.076360162042</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O95" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW95" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX95" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY95" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ95" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA95" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:57" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <v>44239.499647719902</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P96" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q96" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R96" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="S96" s="16">
+        <v>3</v>
+      </c>
+      <c r="T96" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="V96" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W96" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y96" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z96" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA96" s="16">
+        <v>4</v>
+      </c>
+      <c r="AC96" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX96" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY96" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ96" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE96" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:53" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
+        <v>44240.76852622685</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P97" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q97" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S97" s="16">
+        <v>5</v>
+      </c>
+      <c r="T97" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="U97" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="V97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X97" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y97" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z97" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA97" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC97" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW97" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX97" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ97" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA97" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:53" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
+        <v>44240.872397546293</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P98" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q98" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S98" s="16">
+        <v>5</v>
+      </c>
+      <c r="T98" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="U98" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="V98" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X98" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y98" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z98" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA98" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC98" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW98" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX98" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ98" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA98" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:53" s="17" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="15">
+        <v>44241.875137291667</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P99" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q99" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S99" s="16">
+        <v>5</v>
+      </c>
+      <c r="T99" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="U99" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="V99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X99" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y99" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z99" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA99" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC99" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW99" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX99" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ99" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA99" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>